--- a/admin/assets/file/excel/product_import_sample.xlsx
+++ b/admin/assets/file/excel/product_import_sample.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -196,10 +204,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -209,42 +217,315 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="5" width="14.43"/>
+    <col min="1" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -270,7 +551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -281,22 +562,22 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -307,22 +588,22 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -333,22 +614,22 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -359,22 +640,22 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -385,22 +666,22 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -411,22 +692,22 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -437,22 +718,22 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -463,22 +744,19 @@
         <v>22</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -489,22 +767,22 @@
         <v>24</v>
       </c>
       <c r="D10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -515,22 +793,22 @@
         <v>26</v>
       </c>
       <c r="D11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0.0</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -541,22 +819,22 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -567,22 +845,19 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0</v>
-      </c>
-      <c r="H13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -593,22 +868,19 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -619,22 +891,19 @@
         <v>34</v>
       </c>
       <c r="D15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-      <c r="G15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -645,22 +914,19 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
-      </c>
-      <c r="F16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -671,22 +937,22 @@
         <v>38</v>
       </c>
       <c r="D17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -697,22 +963,16 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>0.0</v>
-      </c>
-      <c r="E18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0</v>
-      </c>
-      <c r="H18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -723,22 +983,22 @@
         <v>42</v>
       </c>
       <c r="D19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -749,22 +1009,22 @@
         <v>44</v>
       </c>
       <c r="D20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -775,22 +1035,22 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -801,22 +1061,22 @@
         <v>48</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>0.0</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>0.0</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -827,22 +1087,19 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.0</v>
+        <v>8</v>
       </c>
       <c r="F23">
-        <v>0.0</v>
-      </c>
-      <c r="G23">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -853,22 +1110,22 @@
         <v>52</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -879,22 +1136,19 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.0</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>0.0</v>
-      </c>
-      <c r="H25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -905,22 +1159,22 @@
         <v>56</v>
       </c>
       <c r="D26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -931,22 +1185,22 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>